--- a/doc/progress_tracker.xlsx
+++ b/doc/progress_tracker.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Writing\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Writing\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6854E-E379-400D-97F2-FBF70C5C3B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D14499-5373-4003-A379-216439518798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{0D35190A-3DD9-4AC2-9AFC-499A3B37E647}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0D35190A-3DD9-4AC2-9AFC-499A3B37E647}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Introduction" sheetId="2" r:id="rId2"/>
-    <sheet name="Metrology" sheetId="3" r:id="rId3"/>
-    <sheet name="ManyBody" sheetId="4" r:id="rId4"/>
-    <sheet name="Wordcount" sheetId="5" r:id="rId5"/>
+    <sheet name="Schedule" sheetId="6" r:id="rId2"/>
+    <sheet name="Introduction" sheetId="2" r:id="rId3"/>
+    <sheet name="Metrology" sheetId="3" r:id="rId4"/>
+    <sheet name="ManyBody" sheetId="4" r:id="rId5"/>
+    <sheet name="Wordcount" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
   <si>
     <t>Section</t>
   </si>
@@ -66,30 +67,18 @@
     <t>Thesis structure</t>
   </si>
   <si>
-    <t>History &amp; conceptual introduction</t>
-  </si>
-  <si>
-    <t>Ultracold atoms and spectroscopy</t>
-  </si>
-  <si>
     <t>Ultracold many-body physics</t>
   </si>
   <si>
     <t>Getting to the ground state</t>
   </si>
   <si>
-    <t>Vaccum system</t>
-  </si>
-  <si>
     <t>Cooling and trapping</t>
   </si>
   <si>
     <t>Diagnostics &amp; detection</t>
   </si>
   <si>
-    <t>Tunable laser system</t>
-  </si>
-  <si>
     <t>Transition measurements</t>
   </si>
   <si>
@@ -138,15 +127,6 @@
     <t>Many-body</t>
   </si>
   <si>
-    <t>Explosion of scope</t>
-  </si>
-  <si>
-    <t>The armada of thermo &amp; statmech</t>
-  </si>
-  <si>
-    <t>Emergent phenomena &amp; complexity</t>
-  </si>
-  <si>
     <t>Quantum depletion</t>
   </si>
   <si>
@@ -532,6 +512,54 @@
   </si>
   <si>
     <t>Link to next chapter</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Review &amp; plan</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Writing Schedule</t>
+  </si>
+  <si>
+    <t>Progress summary</t>
+  </si>
+  <si>
+    <t>Next action</t>
   </si>
 </sst>
 </file>
@@ -575,9 +603,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,640 +921,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8526DEE-EECC-4C6C-BF7D-7A896A60DF9C}">
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,11 +1115,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF87F67E-C5E4-4728-B0AC-1CDBF9E4D66B}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AB48F-3C00-404A-8D57-D2FF24DE214E}">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D30"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1569,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1607,16 +1283,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1625,13 +1301,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1640,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1655,13 +1331,13 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1670,13 +1346,13 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1685,10 +1361,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1697,7 +1373,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1706,7 +1382,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1715,7 +1391,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1726,13 +1402,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1741,7 +1417,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1750,7 +1426,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1759,7 +1435,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1768,10 +1444,10 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1780,7 +1456,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1790,7 +1466,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1800,7 +1476,7 @@
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1810,7 +1486,7 @@
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1819,10 +1495,10 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1831,7 +1507,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1841,7 +1517,7 @@
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1851,7 +1527,7 @@
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,7 +1537,7 @@
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1870,10 +1546,10 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1882,7 +1558,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1891,7 +1567,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1900,7 +1576,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2003,12 +1679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99426697-5267-4F02-92CB-A0E65B05636F}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection sqref="A1:D42"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2040,18 +1716,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2060,40 +1736,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2102,19 +1778,19 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2122,13 +1798,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2137,37 +1813,37 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2176,39 +1852,39 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2216,21 +1892,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2239,52 +1915,52 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,13 +1968,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2307,28 +1983,28 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2337,10 +2013,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2349,10 +2025,10 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2360,10 +2036,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2371,13 +2047,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2385,41 +2061,41 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2427,12 +2103,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,11 +2205,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7821EE-EA5E-4480-ACF8-D303EC0FA7CF}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D38"/>
     </sheetView>
   </sheetViews>
@@ -2554,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2566,18 +2242,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2586,15 +2262,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2603,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2618,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2626,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2641,22 +2317,22 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2665,22 +2341,22 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2689,16 +2365,16 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2707,10 +2383,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2719,37 +2395,37 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2758,7 +2434,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2769,59 +2445,59 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2830,16 +2506,16 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2848,10 +2524,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2860,43 +2536,43 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2905,13 +2581,13 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2931,7 +2607,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2939,7 +2615,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2947,7 +2623,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2959,10 +2635,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2972,7 +2648,7 @@
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2981,7 +2657,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2990,7 +2666,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3001,14 +2677,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3098BBD-A84D-48E9-9DE6-21380024736F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="C1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>16400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/progress_tracker.xlsx
+++ b/doc/progress_tracker.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Writing\Thesis\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Writing\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D14499-5373-4003-A379-216439518798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0D35190A-3DD9-4AC2-9AFC-499A3B37E647}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="6" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="6" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Introduction" sheetId="2" r:id="rId3"/>
     <sheet name="Metrology" sheetId="3" r:id="rId4"/>
     <sheet name="ManyBody" sheetId="4" r:id="rId5"/>
     <sheet name="Wordcount" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="174">
   <si>
     <t>Section</t>
   </si>
@@ -544,12 +543,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Lunch</t>
   </si>
   <si>
@@ -560,13 +553,19 @@
   </si>
   <si>
     <t>Next action</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>Depletion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,13 +581,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -600,15 +612,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,206 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8526DEE-EECC-4C6C-BF7D-7A896A60DF9C}">
-  <dimension ref="A2:H41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF87F67E-C5E4-4728-B0AC-1CDBF9E4D66B}">
-  <dimension ref="B3:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,79 +947,73 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43831</v>
+      </c>
+    </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>171</v>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>163</v>
+      <c r="B4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>165</v>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" t="s">
-        <v>169</v>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1208,8 +1022,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AB48F-3C00-404A-8D57-D2FF24DE214E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1680,7 +1690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99426697-5267-4F02-92CB-A0E65B05636F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
@@ -2206,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7821EE-EA5E-4480-ACF8-D303EC0FA7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3098BBD-A84D-48E9-9DE6-21380024736F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
